--- a/downloaded_files/EECS420_Lecture-35764.xlsx
+++ b/downloaded_files/EECS420_Lecture-35764.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ahmed Hosam El Din Ahmed Yosef</x:t>
   </x:si>
   <x:si>
+    <x:t>1210003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جلال محمد جلال عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Galal Mohamed Galal Abdelhamid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210008</x:t>
   </x:si>
   <x:si>
@@ -60,6 +69,15 @@
     <x:t>Rawan yasser hashem</x:t>
   </x:si>
   <x:si>
+    <x:t>1210137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد هشام فهمي محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210233</x:t>
   </x:si>
   <x:si>
@@ -87,6 +105,42 @@
     <x:t>Shrouk Mohamed Ameen Eltaher</x:t>
   </x:si>
   <x:si>
+    <x:t>1210252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد ابراهيم الدسوقى عبد السلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Ibrahim ElDessouki Abdelsalam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد على الشريف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد إبراهيم صبح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Ibrahim Sobh</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210081</x:t>
   </x:si>
   <x:si>
@@ -105,6 +159,15 @@
     <x:t>Malak Mohamed Helmy Mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1210313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210392</x:t>
   </x:si>
   <x:si>
@@ -112,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Walid Mohamed Taher Mohamed Elseidy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد عبد البر حماد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef ahmed abdelbar hammad</x:t>
   </x:si>
   <x:si>
     <x:t>1210335</x:t>
@@ -245,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -555,7 +627,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.630625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.350625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -700,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6652131597</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -732,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4158490741</x:v>
+        <x:v>45906.6652131597</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -764,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.414416088</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -796,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4154896991</x:v>
+        <x:v>45906.4158490741</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -828,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.5046043981</x:v>
+        <x:v>45906.414416088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -860,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45906.4154896991</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4180948264</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +1045,262 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45925.4633755787</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45906.5046043981</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45906.6996595255</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45925.4633755787</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45906.6698939468</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45925.4633755787</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45906.4161756134</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45906.4180948264</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS420_Lecture-35764.xlsx
+++ b/downloaded_files/EECS420_Lecture-35764.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Shrouk Mohamed Ameen Eltaher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
   </x:si>
   <x:si>
     <x:t>1210020</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1060,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.5046043981</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.5046043981</x:v>
+        <x:v>45906.6996595255</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.4161756134</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45906.4180948264</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45906.4180948264</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS420_Lecture-35764.xlsx
+++ b/downloaded_files/EECS420_Lecture-35764.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Rawan yasser hashem</x:t>
   </x:si>
   <x:si>
-    <x:t>1210137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد هشام فهمي محمد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210233</x:t>
   </x:si>
   <x:si>
@@ -114,13 +105,13 @@
     <x:t>Omar Ahmed Ibrahim ElDessouki Abdelsalam</x:t>
   </x:si>
   <x:si>
-    <x:t>4220139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد على الشريف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
+    <x:t>1210411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى رجب صبحى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kenzy Ragab Sobhy Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210288</x:t>
@@ -308,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -827,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.4158490741</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4158490741</x:v>
+        <x:v>45906.414416088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.414416088</x:v>
+        <x:v>45906.4154896991</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4154896991</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45927.4210564815</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1019,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.5046043981</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5046043981</x:v>
+        <x:v>45906.6996595255</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.4161756134</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1202,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45906.4180948264</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1228,38 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45906.4180948264</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS420_Lecture-35764.xlsx
+++ b/downloaded_files/EECS420_Lecture-35764.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,6 +96,15 @@
     <x:t>Shrouk Mohamed Ameen Eltaher</x:t>
   </x:si>
   <x:si>
+    <x:t>1210252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210020</x:t>
   </x:si>
   <x:si>
@@ -103,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Ibrahim ElDessouki Abdelsalam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد على الشريف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
   </x:si>
   <x:si>
     <x:t>1210411</x:t>
@@ -299,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -914,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45928.9352151273</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4210564815</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45928.9098416667</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5046043981</x:v>
+        <x:v>45927.4210564815</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.5046043981</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45906.6996595255</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1170,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4180948264</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1237,70 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45906.4161756134</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45906.4180948264</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS420_Lecture-35764.xlsx
+++ b/downloaded_files/EECS420_Lecture-35764.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Malak Mohamed Helmy Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210392</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.4161756134</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45906.4180948264</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45906.4180948264</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS420_Lecture-35764.xlsx
+++ b/downloaded_files/EECS420_Lecture-35764.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Rawan yasser hashem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد هشام فهمي محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210233</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -827,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4158490741</x:v>
+        <x:v>45932.4284215278</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.414416088</x:v>
+        <x:v>45906.4158490741</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4154896991</x:v>
+        <x:v>45906.414416088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.9352151273</x:v>
+        <x:v>45906.4154896991</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45928.9352151273</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.9098416667</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4210564815</x:v>
+        <x:v>45928.9098416667</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45927.4210564815</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.5046043981</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45906.5046043981</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45906.6996595255</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45925.4633755787</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45925.4633755787</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4180948264</x:v>
+        <x:v>45906.4161756134</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45906.4180948264</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
